--- a/src/test/resources/testData/UserPostData.xlsx
+++ b/src/test/resources/testData/UserPostData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\eclipse-workspace\NumpyNinja-APITest\apibootcamp\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15136748-4815-4737-83F6-401F7596EF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70600790-27FC-4D94-B4DA-769327F6EC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B1C51ABA-3E92-4239-8245-29F0466D1FE3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{B1C51ABA-3E92-4239-8245-29F0466D1FE3}"/>
   </bookViews>
   <sheets>
     <sheet name="BasicAuth" sheetId="2" r:id="rId1"/>
     <sheet name="UserPositivePostScenario" sheetId="1" r:id="rId2"/>
+    <sheet name="UserPositivePutScenario" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
   <si>
     <t>FirstName</t>
   </si>
@@ -95,6 +96,63 @@
   </si>
   <si>
     <t>ad1@abc.com</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Status Code</t>
+  </si>
+  <si>
+    <t>Desh</t>
+  </si>
+  <si>
+    <t>LastName changes to valid name</t>
+  </si>
+  <si>
+    <t>Valid ContactNumber</t>
+  </si>
+  <si>
+    <t>Valid PlotNumber</t>
+  </si>
+  <si>
+    <t>Valid EmailId</t>
+  </si>
+  <si>
+    <t>Valid Street</t>
+  </si>
+  <si>
+    <t>Valid State</t>
+  </si>
+  <si>
+    <t>Valid Country</t>
+  </si>
+  <si>
+    <t>Valid ZipCode</t>
+  </si>
+  <si>
+    <t>ad1s@abc.com</t>
+  </si>
+  <si>
+    <t>55-F</t>
+  </si>
+  <si>
+    <t>No Change</t>
+  </si>
+  <si>
+    <t>StreetNew</t>
+  </si>
+  <si>
+    <t>StateN</t>
+  </si>
+  <si>
+    <t>CountryN</t>
   </si>
 </sst>
 </file>
@@ -493,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AA0240-4E7D-4B45-BDDD-9936E80CA8A2}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,4 +651,336 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54984339-830F-423F-8032-FBDDFAAFDDDE}">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="11" max="11" width="18.90625" customWidth="1"/>
+    <col min="12" max="12" width="16.90625" customWidth="1"/>
+    <col min="13" max="13" width="21.90625" customWidth="1"/>
+    <col min="14" max="14" width="34.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>13548</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>1234567786</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>2345</v>
+      </c>
+      <c r="L2">
+        <v>200</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>13549</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1234462786</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>13549</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>1234462786</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>13549</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>1234462786</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>13549</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1234462786</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>13549</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>1234462786</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>13549</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>1234462786</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>13549</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>1234462786</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>13549</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>1234462786</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10">
+        <v>1234</v>
+      </c>
+      <c r="N10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{9E76DA5B-34C5-4FC9-9525-A061DD8EFF32}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{A3C1F885-7A08-473F-8667-D69F0ADB421A}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{0EEEF897-1821-4433-9EF8-D47BE06C3EA4}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{4837C922-F87C-4E85-A36B-B6004E2A00A6}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{8EB7F539-719E-40EB-832F-C04998C8A1C5}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{3D7BF15C-B18F-4473-89BB-7A1FFB6982A2}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{83B9582B-BEBA-45FC-9517-15F9E15F40DF}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{E013318C-A19B-4E40-91CE-FFBBCBD9F49A}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{BA16FCDF-C0D7-4B0E-B953-16865B4C6187}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>